--- a/excel/04.xlsx
+++ b/excel/04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16594C4A-07AB-43F3-928A-E9CC303D7E0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1333460C-849A-4B92-9F95-DD96F07B86C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="4730" windowWidth="23300" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="680" windowWidth="20610" windowHeight="20430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>今日やること</t>
   </si>
@@ -735,6 +735,13 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ToDo:「フィル」を使う．</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -896,13 +903,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>374539</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>37831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1202,9 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1322,375 +1331,380 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
+      <c r="B37">
         <f>10+10*0.05*5</f>
         <v>12.5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
+      <c r="B38">
         <f>10*1.05^5</f>
         <v>12.762815625000002</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="1" t="s">
+    <row r="39" spans="1:7">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>378</v>
-      </c>
-      <c r="C37">
-        <v>126496</v>
-      </c>
-      <c r="D37">
-        <v>96369</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="E39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>378</v>
+      </c>
+      <c r="C44">
+        <v>126496</v>
+      </c>
+      <c r="D44">
+        <v>96369</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="B44" t="s">
+    <row r="51" spans="1:9">
+      <c r="B51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="H52" s="1" t="s">
+    <row r="59" spans="1:9">
+      <c r="H59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="H53" s="2" t="s">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="H60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="H54" s="2" t="s">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="H61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="4" t="s">
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="4">
+    <row r="63" spans="1:9">
+      <c r="A63" s="4">
         <v>1</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D63" s="4">
         <v>4055</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E63" s="4">
         <v>2382</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F63" s="4">
         <v>43333</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G63" s="4">
         <v>61690</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H63" s="13">
         <v>18.191855583543241</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I63" s="14">
         <v>7.0891574218365783E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4">
+    <row r="64" spans="1:9">
+      <c r="A64" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D64" s="4">
         <v>14398</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E64" s="4">
         <v>2796</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F64" s="4">
         <v>45510</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G64" s="4">
         <v>58221</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H64" s="11">
         <v>16.276824034334766</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I64" s="12">
         <v>4.9384347178234034E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4">
+    <row r="65" spans="1:9">
+      <c r="A65" s="4">
         <v>3</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D65" s="4">
         <v>53794</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E65" s="4">
         <v>7692</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F65" s="4">
         <v>25398</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G65" s="4">
         <v>37357</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H65" s="11">
         <v>3.3018720748829953</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I65" s="12">
         <v>7.7468503594266824E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4">
+    <row r="66" spans="1:9">
+      <c r="A66" s="4">
         <v>4</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D66" s="4">
         <v>47381</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E66" s="4">
         <v>84</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F66" s="4">
         <v>8782</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G66" s="4">
         <v>8536</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H66" s="11">
         <v>104.54761904761905</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I66" s="12">
         <v>-5.6807174891282397E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4">
+    <row r="67" spans="1:9">
+      <c r="A67" s="4">
         <v>5</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D67" s="4">
         <v>1517</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E67" s="4">
         <v>148</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F67" s="4">
         <v>169775</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G67" s="4">
         <v>199365</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H67" s="11">
         <v>1147.1283783783783</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I67" s="12">
         <v>3.2184337630114523E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="8" t="s">
+    <row r="69" spans="1:9">
+      <c r="B69" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="9" t="s">
+    <row r="70" spans="1:9">
+      <c r="B70" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="9" t="s">
+    <row r="71" spans="1:9">
+      <c r="B71" s="9" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="E48" r:id="rId1" xr:uid="{D7564F2D-9C5D-4865-9741-DD79AD8F29C9}"/>
-    <hyperlink ref="D46" r:id="rId2" xr:uid="{AF36BE58-9AB8-41C0-96AE-543E50DB2038}"/>
+    <hyperlink ref="E55" r:id="rId1" xr:uid="{D7564F2D-9C5D-4865-9741-DD79AD8F29C9}"/>
+    <hyperlink ref="D53" r:id="rId2" xr:uid="{AF36BE58-9AB8-41C0-96AE-543E50DB2038}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{3FFB0FF4-F886-41D3-B037-AF9390C6EED3}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{D5AEB839-DD37-4328-9B00-411C06E11DBB}"/>
   </hyperlinks>
